--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="255">
   <si>
     <t>API Mode</t>
   </si>
@@ -753,6 +753,60 @@
   </si>
   <si>
     <t>RMA-52JG-1-3</t>
+  </si>
+  <si>
+    <t>RMA-0MP1-001</t>
+  </si>
+  <si>
+    <t>RMA-0MP1-002</t>
+  </si>
+  <si>
+    <t>RMA-0MP1-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLbAAM</t>
+  </si>
+  <si>
+    <t>RMA-0MP1-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLcAAM</t>
+  </si>
+  <si>
+    <t>RMA-0MP1-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLdAAM</t>
+  </si>
+  <si>
+    <t>RMA-0MP1-1-3</t>
+  </si>
+  <si>
+    <t>RMA-D2PI-001</t>
+  </si>
+  <si>
+    <t>RMA-D2PI-002</t>
+  </si>
+  <si>
+    <t>RMA-D2PI-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLvAAM</t>
+  </si>
+  <si>
+    <t>RMA-D2PI-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLwAAM</t>
+  </si>
+  <si>
+    <t>RMA-D2PI-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLxAAM</t>
+  </si>
+  <si>
+    <t>RMA-D2PI-1-3</t>
   </si>
 </sst>
 </file>
@@ -762,7 +816,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="231" x14ac:knownFonts="1">
+  <fonts count="255" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,6 +836,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2160,7 +2358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="115">
+  <borders count="127">
     <border>
       <left/>
       <right/>
@@ -2510,11 +2708,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="255">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2744,8 +2978,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="230" fillId="0" borderId="114" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="233" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="234" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="235" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="117" fillId="0" fontId="236" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="237" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="118" fillId="0" fontId="238" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="239" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="119" fillId="0" fontId="240" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="241" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="120" fillId="0" fontId="242" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="243" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="121" fillId="0" fontId="244" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="245" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="122" fillId="0" fontId="246" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="247" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="123" fillId="0" fontId="248" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="249" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="254" fillId="0" borderId="126" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3533,11 +3791,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.79296875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.53125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.5625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3587,10 +3845,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -3599,7 +3857,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3616,10 +3874,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -3628,7 +3886,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3645,10 +3903,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -3657,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="282">
   <si>
     <t>API Mode</t>
   </si>
@@ -807,6 +807,87 @@
   </si>
   <si>
     <t>RMA-D2PI-1-3</t>
+  </si>
+  <si>
+    <t>RMA-5VEE-001</t>
+  </si>
+  <si>
+    <t>RMA-5VEE-002</t>
+  </si>
+  <si>
+    <t>RMA-5VEE-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKPEAA2</t>
+  </si>
+  <si>
+    <t>RMA-5VEE-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKPFAA2</t>
+  </si>
+  <si>
+    <t>RMA-5VEE-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKPGAA2</t>
+  </si>
+  <si>
+    <t>RMA-5VEE-1-3</t>
+  </si>
+  <si>
+    <t>RMA-LI2U-001</t>
+  </si>
+  <si>
+    <t>RMA-LI2U-002</t>
+  </si>
+  <si>
+    <t>RMA-LI2U-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKQlAAM</t>
+  </si>
+  <si>
+    <t>RMA-LI2U-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKQmAAM</t>
+  </si>
+  <si>
+    <t>RMA-LI2U-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKQnAAM</t>
+  </si>
+  <si>
+    <t>RMA-LI2U-1-3</t>
+  </si>
+  <si>
+    <t>RMA-1GFW-001</t>
+  </si>
+  <si>
+    <t>RMA-1GFW-002</t>
+  </si>
+  <si>
+    <t>RMA-1GFW-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRAAA2</t>
+  </si>
+  <si>
+    <t>RMA-1GFW-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRBAA2</t>
+  </si>
+  <si>
+    <t>RMA-1GFW-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRCAA2</t>
+  </si>
+  <si>
+    <t>RMA-1GFW-1-3</t>
   </si>
 </sst>
 </file>
@@ -816,7 +897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="255" x14ac:knownFonts="1">
+  <fonts count="291" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +917,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2358,7 +2655,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="127">
+  <borders count="145">
     <border>
       <left/>
       <right/>
@@ -2744,11 +3041,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="291">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3002,8 +3353,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="254" fillId="0" borderId="126" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="253" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="254" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="255" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="256" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="257" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="258" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="259" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="129" fillId="0" fontId="260" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="261" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="265" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="132" fillId="0" fontId="266" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="267" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="133" fillId="0" fontId="268" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="269" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="134" fillId="0" fontId="270" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="271" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="135" fillId="0" fontId="272" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="273" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="136" fillId="0" fontId="274" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="275" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="137" fillId="0" fontId="276" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="277" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="138" fillId="0" fontId="278" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="279" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="139" fillId="0" fontId="280" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="281" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="140" fillId="0" fontId="282" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="283" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="141" fillId="0" fontId="284" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="285" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="290" fillId="0" borderId="144" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3790,12 +4177,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.79296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.10546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.5625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.765625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3845,10 +4232,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -3857,7 +4244,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3874,10 +4261,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -3886,7 +4273,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3903,10 +4290,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -3915,7 +4302,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="309">
   <si>
     <t>API Mode</t>
   </si>
@@ -888,6 +888,87 @@
   </si>
   <si>
     <t>RMA-1GFW-1-3</t>
+  </si>
+  <si>
+    <t>RMA-25D4-001</t>
+  </si>
+  <si>
+    <t>RMA-25D4-002</t>
+  </si>
+  <si>
+    <t>RMA-25D4-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYWAA2</t>
+  </si>
+  <si>
+    <t>RMA-25D4-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYXAA2</t>
+  </si>
+  <si>
+    <t>RMA-25D4-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYYAA2</t>
+  </si>
+  <si>
+    <t>RMA-25D4-1-3</t>
+  </si>
+  <si>
+    <t>RMA-AIDM-001</t>
+  </si>
+  <si>
+    <t>RMA-AIDM-002</t>
+  </si>
+  <si>
+    <t>RMA-AIDM-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYqAAM</t>
+  </si>
+  <si>
+    <t>RMA-AIDM-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYrAAM</t>
+  </si>
+  <si>
+    <t>RMA-AIDM-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYsAAM</t>
+  </si>
+  <si>
+    <t>RMA-AIDM-1-3</t>
+  </si>
+  <si>
+    <t>RMA-R5ZJ-001</t>
+  </si>
+  <si>
+    <t>RMA-R5ZJ-002</t>
+  </si>
+  <si>
+    <t>RMA-R5ZJ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZUAA2</t>
+  </si>
+  <si>
+    <t>RMA-R5ZJ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZVAA2</t>
+  </si>
+  <si>
+    <t>RMA-R5ZJ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZWAA2</t>
+  </si>
+  <si>
+    <t>RMA-R5ZJ-1-3</t>
   </si>
 </sst>
 </file>
@@ -897,7 +978,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="291" x14ac:knownFonts="1">
+  <fonts count="327" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,6 +998,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2655,7 +2952,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="145">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -3095,11 +3392,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="327">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3389,8 +3740,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="290" fillId="0" borderId="144" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="289" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="144" fillId="0" fontId="290" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="291" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="145" fillId="0" fontId="292" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="293" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="294" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="295" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="296" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="297" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="298" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="299" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="300" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="301" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="150" fillId="0" fontId="302" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="303" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="151" fillId="0" fontId="304" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="305" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="306" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="307" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="308" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="309" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="313" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="314" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="315" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="316" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="317" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="318" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="319" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="321" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="326" fillId="0" borderId="162" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4177,12 +4564,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.10546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.67578125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.765625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4232,10 +4619,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -4244,7 +4631,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4261,10 +4648,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -4273,7 +4660,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4290,10 +4677,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -4302,7 +4689,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
